--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2972251.823194103</v>
+        <v>-2974824.161279551</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13136124.23768019</v>
+        <v>13136124.23768018</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344.2204013002516</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>326.7594514077786</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>316.169601257454</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>176.0107591578127</v>
+        <v>343.416929709033</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>373.3572944803978</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>265.813364392954</v>
+        <v>265.8133643929542</v>
       </c>
       <c r="I11" t="n">
-        <v>39.65016621385387</v>
+        <v>39.65016621385402</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>92.29986834602138</v>
+        <v>92.29986834602153</v>
       </c>
       <c r="T11" t="n">
-        <v>169.5588175063749</v>
+        <v>169.558817506375</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>212.557652330887</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>289.2388181069061</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>310.7275283541842</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>32.85208080985853</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>347.7244982928248</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128.0197432866384</v>
+        <v>128.0197432866385</v>
       </c>
       <c r="C12" t="n">
-        <v>134.1950586250868</v>
+        <v>134.1950586250869</v>
       </c>
       <c r="D12" t="n">
-        <v>108.9316252014098</v>
+        <v>108.9316252014099</v>
       </c>
       <c r="E12" t="n">
-        <v>119.131640092172</v>
+        <v>119.1316400921721</v>
       </c>
       <c r="F12" t="n">
-        <v>106.5557720301549</v>
+        <v>106.5557720301551</v>
       </c>
       <c r="G12" t="n">
-        <v>96.99379348380627</v>
+        <v>96.99379348380641</v>
       </c>
       <c r="H12" t="n">
-        <v>55.98737289862613</v>
+        <v>55.98737289862629</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>99.06157353007023</v>
+        <v>99.06157353007038</v>
       </c>
       <c r="T12" t="n">
-        <v>154.2497779475348</v>
+        <v>154.2497779475349</v>
       </c>
       <c r="U12" t="n">
-        <v>187.3071336048396</v>
+        <v>187.3071336048397</v>
       </c>
       <c r="V12" t="n">
-        <v>194.2871467861963</v>
+        <v>194.2871467861964</v>
       </c>
       <c r="W12" t="n">
-        <v>213.1815427976906</v>
+        <v>213.1815427976908</v>
       </c>
       <c r="X12" t="n">
-        <v>167.2595448402485</v>
+        <v>167.2595448402487</v>
       </c>
       <c r="Y12" t="n">
-        <v>167.1692554140754</v>
+        <v>167.1692554140755</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.3185398187083</v>
+        <v>141.3185398187085</v>
       </c>
       <c r="C13" t="n">
-        <v>128.7333807353989</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.1020326549834</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>107.9205222833402</v>
+        <v>107.9205222833403</v>
       </c>
       <c r="F13" t="n">
-        <v>106.9076076597023</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>127.9380607477028</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>110.0263709980162</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>70.64072508385451</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>69.5594109024097</v>
       </c>
       <c r="S13" t="n">
-        <v>158.6742503963869</v>
+        <v>158.674250396387</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>182.8543783710738</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>247.7216174524877</v>
       </c>
       <c r="V13" t="n">
-        <v>213.624202960599</v>
+        <v>213.6242029605992</v>
       </c>
       <c r="W13" t="n">
-        <v>248.009557973362</v>
+        <v>248.0095579733622</v>
       </c>
       <c r="X13" t="n">
-        <v>187.1962150258082</v>
+        <v>187.1962150258083</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.44103719614271</v>
+        <v>173.6538083498275</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>337.1423086189313</v>
+        <v>337.1423086189309</v>
       </c>
       <c r="C14" t="n">
-        <v>319.6813587264583</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>309.0915085761337</v>
+        <v>309.0915085761333</v>
       </c>
       <c r="E14" t="n">
-        <v>336.3388370277125</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>361.2845126971621</v>
+        <v>361.2845126971618</v>
       </c>
       <c r="G14" t="n">
-        <v>365.3301926089042</v>
+        <v>292.0457677932998</v>
       </c>
       <c r="H14" t="n">
-        <v>249.0162313427712</v>
+        <v>249.0162313427708</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.59622874362654</v>
+        <v>63.5962287436262</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3264370950708</v>
+        <v>158.3264370950705</v>
       </c>
       <c r="U14" t="n">
-        <v>205.4036389143527</v>
+        <v>205.4036389143523</v>
       </c>
       <c r="V14" t="n">
-        <v>282.1607254255856</v>
+        <v>282.1607254255853</v>
       </c>
       <c r="W14" t="n">
-        <v>239.1307883485087</v>
+        <v>303.6494356728634</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>324.1395676339194</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>340.646405611504</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.240447137388</v>
+        <v>134.2404471373877</v>
       </c>
       <c r="C16" t="n">
-        <v>121.6552880540785</v>
+        <v>121.6552880540782</v>
       </c>
       <c r="D16" t="n">
-        <v>103.0239399736631</v>
+        <v>103.0239399736627</v>
       </c>
       <c r="E16" t="n">
-        <v>100.8424296020199</v>
+        <v>100.8424296020195</v>
       </c>
       <c r="F16" t="n">
-        <v>99.82951497838195</v>
+        <v>99.82951497838161</v>
       </c>
       <c r="G16" t="n">
-        <v>120.4342752144789</v>
+        <v>120.4342752144786</v>
       </c>
       <c r="H16" t="n">
-        <v>99.16348186977149</v>
+        <v>99.16348186977045</v>
       </c>
       <c r="I16" t="n">
-        <v>50.7608873652888</v>
+        <v>17.77467127724663</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>10.35440353744798</v>
+        <v>43.3406196254977</v>
       </c>
       <c r="S16" t="n">
-        <v>144.1774922868925</v>
+        <v>144.177492286892</v>
       </c>
       <c r="T16" t="n">
-        <v>173.9574162316199</v>
+        <v>173.9574162316196</v>
       </c>
       <c r="U16" t="n">
-        <v>240.6203051610633</v>
+        <v>240.6203051610632</v>
       </c>
       <c r="V16" t="n">
-        <v>206.5461102792787</v>
+        <v>206.5461102792784</v>
       </c>
       <c r="W16" t="n">
-        <v>240.9314652920417</v>
+        <v>240.9314652920414</v>
       </c>
       <c r="X16" t="n">
-        <v>180.1181223444879</v>
+        <v>180.1181223444875</v>
       </c>
       <c r="Y16" t="n">
-        <v>172.9931203075455</v>
+        <v>172.9931203075452</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429035</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D17" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925772</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G17" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H17" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U17" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V17" t="n">
         <v>230.06753824203</v>
@@ -1907,7 +1907,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X17" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y17" t="n">
         <v>288.5532184279487</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T19" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V19" t="n">
         <v>154.4529230957231</v>
@@ -2065,10 +2065,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D20" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G20" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592133</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U20" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V20" t="n">
         <v>230.06753824203</v>
@@ -2144,7 +2144,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y20" t="n">
         <v>288.5532184279487</v>
@@ -2166,7 +2166,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2223,7 +2223,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T22" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V22" t="n">
         <v>154.4529230957231</v>
@@ -2302,10 +2302,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X22" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D23" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E23" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U23" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V23" t="n">
         <v>230.06753824203</v>
@@ -2381,7 +2381,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y23" t="n">
         <v>288.5532184279487</v>
@@ -2445,7 +2445,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2457,7 +2457,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333694</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T25" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V25" t="n">
         <v>154.4529230957231</v>
@@ -2539,10 +2539,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>323.5625617986046</v>
+        <v>323.5625617986045</v>
       </c>
       <c r="C26" t="n">
-        <v>306.1016119061316</v>
+        <v>306.1016119061315</v>
       </c>
       <c r="D26" t="n">
-        <v>295.511761755807</v>
+        <v>295.5117617558069</v>
       </c>
       <c r="E26" t="n">
-        <v>322.7590902073858</v>
+        <v>322.7590902073857</v>
       </c>
       <c r="F26" t="n">
         <v>347.7047658768354</v>
       </c>
       <c r="G26" t="n">
-        <v>351.7504457885775</v>
+        <v>351.7504457885774</v>
       </c>
       <c r="H26" t="n">
-        <v>235.4364845224445</v>
+        <v>235.4364845224444</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.01648192329986</v>
+        <v>50.01648192329978</v>
       </c>
       <c r="T26" t="n">
-        <v>144.7466902747442</v>
+        <v>144.7466902747441</v>
       </c>
       <c r="U26" t="n">
-        <v>191.823892094026</v>
+        <v>191.8238920940259</v>
       </c>
       <c r="V26" t="n">
-        <v>268.5809786052589</v>
+        <v>268.5809786052588</v>
       </c>
       <c r="W26" t="n">
         <v>290.069688852537</v>
@@ -2621,7 +2621,7 @@
         <v>310.559820813593</v>
       </c>
       <c r="Y26" t="n">
-        <v>327.0666587911776</v>
+        <v>327.0666587911775</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.6607003170613</v>
+        <v>120.6607003170612</v>
       </c>
       <c r="C28" t="n">
-        <v>108.0755412337519</v>
+        <v>108.0755412337518</v>
       </c>
       <c r="D28" t="n">
-        <v>89.44419315333639</v>
+        <v>89.4441931533363</v>
       </c>
       <c r="E28" t="n">
-        <v>87.2626827816932</v>
+        <v>87.26268278169312</v>
       </c>
       <c r="F28" t="n">
-        <v>86.24976815805528</v>
+        <v>86.24976815805519</v>
       </c>
       <c r="G28" t="n">
-        <v>106.8545283941523</v>
+        <v>106.8545283941522</v>
       </c>
       <c r="H28" t="n">
-        <v>85.58373504944481</v>
+        <v>85.58373504944473</v>
       </c>
       <c r="I28" t="n">
-        <v>37.18114054496213</v>
+        <v>37.18114054496204</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.76087280517136</v>
+        <v>29.76087280517127</v>
       </c>
       <c r="S28" t="n">
-        <v>130.5977454665659</v>
+        <v>130.5977454665658</v>
       </c>
       <c r="T28" t="n">
-        <v>160.3776694112932</v>
+        <v>160.3776694112931</v>
       </c>
       <c r="U28" t="n">
-        <v>227.0405583407369</v>
+        <v>227.0405583407368</v>
       </c>
       <c r="V28" t="n">
-        <v>192.966363458952</v>
+        <v>192.9663634589519</v>
       </c>
       <c r="W28" t="n">
-        <v>227.351718471715</v>
+        <v>227.3517184717149</v>
       </c>
       <c r="X28" t="n">
-        <v>166.5383755241612</v>
+        <v>166.5383755241611</v>
       </c>
       <c r="Y28" t="n">
-        <v>159.4133734872188</v>
+        <v>159.4133734872187</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>330.6406544799249</v>
+        <v>330.6406544799253</v>
       </c>
       <c r="C29" t="n">
-        <v>313.1797045874519</v>
+        <v>313.1797045874523</v>
       </c>
       <c r="D29" t="n">
-        <v>302.5898544371273</v>
+        <v>302.5898544371277</v>
       </c>
       <c r="E29" t="n">
-        <v>329.8371828887061</v>
+        <v>329.8371828887065</v>
       </c>
       <c r="F29" t="n">
-        <v>354.7828585581558</v>
+        <v>354.7828585581562</v>
       </c>
       <c r="G29" t="n">
-        <v>358.8285384698978</v>
+        <v>358.8285384698982</v>
       </c>
       <c r="H29" t="n">
-        <v>242.5145772037648</v>
+        <v>242.5145772037652</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.09457460462016</v>
+        <v>57.09457460462059</v>
       </c>
       <c r="T29" t="n">
-        <v>151.8247829560645</v>
+        <v>151.8247829560649</v>
       </c>
       <c r="U29" t="n">
-        <v>198.9019847753463</v>
+        <v>198.9019847753467</v>
       </c>
       <c r="V29" t="n">
-        <v>275.6590712865793</v>
+        <v>275.6590712865797</v>
       </c>
       <c r="W29" t="n">
-        <v>297.1477815338574</v>
+        <v>297.1477815338578</v>
       </c>
       <c r="X29" t="n">
-        <v>317.6379134949134</v>
+        <v>317.6379134949138</v>
       </c>
       <c r="Y29" t="n">
-        <v>334.1447514724979</v>
+        <v>334.1447514724983</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247742</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>127.7387929983816</v>
+        <v>127.7387929983821</v>
       </c>
       <c r="C31" t="n">
-        <v>115.1536339150722</v>
+        <v>115.1536339150726</v>
       </c>
       <c r="D31" t="n">
-        <v>96.5222858346567</v>
+        <v>96.52228583465711</v>
       </c>
       <c r="E31" t="n">
-        <v>94.34077546301351</v>
+        <v>94.34077546301393</v>
       </c>
       <c r="F31" t="n">
-        <v>93.32786083937559</v>
+        <v>93.327860839376</v>
       </c>
       <c r="G31" t="n">
-        <v>113.9326210754726</v>
+        <v>113.932621075473</v>
       </c>
       <c r="H31" t="n">
-        <v>92.66182773076513</v>
+        <v>92.66182773076554</v>
       </c>
       <c r="I31" t="n">
-        <v>44.25923322628244</v>
+        <v>44.25923322628285</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>36.83896548649167</v>
+        <v>36.83896548649209</v>
       </c>
       <c r="S31" t="n">
-        <v>137.6758381478863</v>
+        <v>137.6758381478867</v>
       </c>
       <c r="T31" t="n">
-        <v>167.4557620926136</v>
+        <v>167.455762092614</v>
       </c>
       <c r="U31" t="n">
-        <v>234.1186510220572</v>
+        <v>234.1186510220576</v>
       </c>
       <c r="V31" t="n">
-        <v>200.0444561402724</v>
+        <v>200.0444561402728</v>
       </c>
       <c r="W31" t="n">
-        <v>234.4298111530354</v>
+        <v>234.4298111530358</v>
       </c>
       <c r="X31" t="n">
-        <v>173.6164682054815</v>
+        <v>173.6164682054819</v>
       </c>
       <c r="Y31" t="n">
-        <v>166.4914661685391</v>
+        <v>166.4914661685395</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>330.6406544799249</v>
+        <v>330.6406544799253</v>
       </c>
       <c r="C32" t="n">
-        <v>313.1797045874519</v>
+        <v>313.1797045874522</v>
       </c>
       <c r="D32" t="n">
-        <v>302.5898544371273</v>
+        <v>302.5898544371277</v>
       </c>
       <c r="E32" t="n">
-        <v>329.8371828887061</v>
+        <v>329.8371828887065</v>
       </c>
       <c r="F32" t="n">
-        <v>354.7828585581558</v>
+        <v>354.7828585581561</v>
       </c>
       <c r="G32" t="n">
-        <v>358.8285384698978</v>
+        <v>358.8285384698981</v>
       </c>
       <c r="H32" t="n">
-        <v>242.5145772037648</v>
+        <v>242.5145772037651</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.09457460462019</v>
+        <v>57.0945746046205</v>
       </c>
       <c r="T32" t="n">
-        <v>151.8247829560645</v>
+        <v>151.8247829560648</v>
       </c>
       <c r="U32" t="n">
-        <v>198.9019847753463</v>
+        <v>198.9019847753466</v>
       </c>
       <c r="V32" t="n">
-        <v>275.6590712865793</v>
+        <v>275.6590712865795</v>
       </c>
       <c r="W32" t="n">
-        <v>297.1477815338574</v>
+        <v>297.1477815338577</v>
       </c>
       <c r="X32" t="n">
-        <v>317.6379134949134</v>
+        <v>317.6379134949137</v>
       </c>
       <c r="Y32" t="n">
-        <v>334.1447514724979</v>
+        <v>334.1447514724982</v>
       </c>
     </row>
     <row r="33">
@@ -3114,10 +3114,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933837</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>134.9994691657081</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>127.7387929983817</v>
+        <v>127.738792998382</v>
       </c>
       <c r="C34" t="n">
-        <v>115.1536339150722</v>
+        <v>115.1536339150725</v>
       </c>
       <c r="D34" t="n">
-        <v>96.52228583465671</v>
+        <v>96.52228583465703</v>
       </c>
       <c r="E34" t="n">
-        <v>94.34077546301353</v>
+        <v>94.34077546301384</v>
       </c>
       <c r="F34" t="n">
-        <v>93.3278608393756</v>
+        <v>93.32786083937592</v>
       </c>
       <c r="G34" t="n">
-        <v>113.9326210754726</v>
+        <v>113.9326210754729</v>
       </c>
       <c r="H34" t="n">
-        <v>92.66182773076514</v>
+        <v>92.66182773076545</v>
       </c>
       <c r="I34" t="n">
-        <v>44.25923322628245</v>
+        <v>44.25923322628277</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>36.83896548649169</v>
+        <v>36.838965486492</v>
       </c>
       <c r="S34" t="n">
-        <v>137.6758381478863</v>
+        <v>137.6758381478866</v>
       </c>
       <c r="T34" t="n">
-        <v>167.4557620926136</v>
+        <v>167.4557620926139</v>
       </c>
       <c r="U34" t="n">
-        <v>234.1186510220572</v>
+        <v>234.1186510220575</v>
       </c>
       <c r="V34" t="n">
-        <v>200.0444561402724</v>
+        <v>200.0444561402727</v>
       </c>
       <c r="W34" t="n">
-        <v>234.4298111530354</v>
+        <v>234.4298111530357</v>
       </c>
       <c r="X34" t="n">
-        <v>173.6164682054815</v>
+        <v>173.6164682054818</v>
       </c>
       <c r="Y34" t="n">
-        <v>166.4914661685391</v>
+        <v>166.4914661685395</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3354,7 +3354,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G36" t="n">
         <v>134.9994691657081</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
@@ -3487,10 +3487,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,10 +3724,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1556.258728770669</v>
+        <v>698.8040049379324</v>
       </c>
       <c r="C11" t="n">
-        <v>1226.19867684362</v>
+        <v>698.8040049379324</v>
       </c>
       <c r="D11" t="n">
-        <v>906.8354432502326</v>
+        <v>698.8040049379324</v>
       </c>
       <c r="E11" t="n">
-        <v>729.0467976362806</v>
+        <v>351.9182173530508</v>
       </c>
       <c r="F11" t="n">
-        <v>729.0467976362806</v>
+        <v>351.9182173530508</v>
       </c>
       <c r="G11" t="n">
-        <v>351.9182173530505</v>
+        <v>351.9182173530508</v>
       </c>
       <c r="H11" t="n">
-        <v>83.41986948137981</v>
+        <v>83.41986948137998</v>
       </c>
       <c r="I11" t="n">
         <v>43.36919653809309</v>
       </c>
       <c r="J11" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K11" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L11" t="n">
-        <v>669.5878927711875</v>
+        <v>669.5878927711882</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N11" t="n">
         <v>1417.286540135169</v>
       </c>
       <c r="O11" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q11" t="n">
         <v>2168.459826904657</v>
@@ -5066,25 +5066,25 @@
         <v>2168.459826904657</v>
       </c>
       <c r="S11" t="n">
-        <v>2075.227636656151</v>
+        <v>2075.22763665615</v>
       </c>
       <c r="T11" t="n">
-        <v>1903.956103821429</v>
+        <v>1903.956103821428</v>
       </c>
       <c r="U11" t="n">
-        <v>1903.956103821429</v>
+        <v>1689.2514044973</v>
       </c>
       <c r="V11" t="n">
-        <v>1903.956103821429</v>
+        <v>1397.090982167092</v>
       </c>
       <c r="W11" t="n">
-        <v>1903.956103821429</v>
+        <v>1083.22479191034</v>
       </c>
       <c r="X11" t="n">
-        <v>1903.956103821429</v>
+        <v>1050.040871900382</v>
       </c>
       <c r="Y11" t="n">
-        <v>1903.956103821429</v>
+        <v>698.8040049379324</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>671.4452190949173</v>
+        <v>671.4452190949182</v>
       </c>
       <c r="C12" t="n">
-        <v>535.8946548271529</v>
+        <v>535.8946548271537</v>
       </c>
       <c r="D12" t="n">
-        <v>425.8627101792641</v>
+        <v>425.8627101792648</v>
       </c>
       <c r="E12" t="n">
-        <v>305.5277201871712</v>
+        <v>305.5277201871717</v>
       </c>
       <c r="F12" t="n">
-        <v>197.8956272274188</v>
+        <v>197.8956272274191</v>
       </c>
       <c r="G12" t="n">
-        <v>99.92209845589733</v>
+        <v>99.92209845589748</v>
       </c>
       <c r="H12" t="n">
         <v>43.36919653809315</v>
       </c>
       <c r="I12" t="n">
-        <v>45.56102959443154</v>
+        <v>45.56102959443139</v>
       </c>
       <c r="J12" t="n">
-        <v>129.8737041215585</v>
+        <v>129.8737041215582</v>
       </c>
       <c r="K12" t="n">
-        <v>286.9649708663876</v>
+        <v>325.0932768259838</v>
       </c>
       <c r="L12" t="n">
-        <v>582.6444123859724</v>
+        <v>620.7727183455684</v>
       </c>
       <c r="M12" t="n">
-        <v>931.9334358050736</v>
+        <v>940.6796138140783</v>
       </c>
       <c r="N12" t="n">
-        <v>1312.844265759302</v>
+        <v>1321.590443768307</v>
       </c>
       <c r="O12" t="n">
-        <v>1642.331817973465</v>
+        <v>1651.07799598247</v>
       </c>
       <c r="P12" t="n">
-        <v>1894.968539493963</v>
+        <v>1901.744673185119</v>
       </c>
       <c r="Q12" t="n">
-        <v>1988.442538138403</v>
+        <v>1995.21867182956</v>
       </c>
       <c r="R12" t="n">
-        <v>1995.218671829558</v>
+        <v>1995.21867182956</v>
       </c>
       <c r="S12" t="n">
-        <v>1895.156476344639</v>
+        <v>1895.15647634464</v>
       </c>
       <c r="T12" t="n">
-        <v>1739.348619831977</v>
+        <v>1739.348619831978</v>
       </c>
       <c r="U12" t="n">
-        <v>1550.149494978604</v>
+        <v>1550.149494978605</v>
       </c>
       <c r="V12" t="n">
-        <v>1353.899851760224</v>
+        <v>1353.899851760225</v>
       </c>
       <c r="W12" t="n">
-        <v>1138.564960045384</v>
+        <v>1138.564960045386</v>
       </c>
       <c r="X12" t="n">
-        <v>969.6159248532141</v>
+        <v>969.6159248532152</v>
       </c>
       <c r="Y12" t="n">
-        <v>800.7580911016228</v>
+        <v>800.7580911016238</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>813.3375805411218</v>
+        <v>152.3798251071238</v>
       </c>
       <c r="C13" t="n">
-        <v>683.3038626265775</v>
+        <v>152.3798251071238</v>
       </c>
       <c r="D13" t="n">
-        <v>572.0896882276043</v>
+        <v>152.3798251071238</v>
       </c>
       <c r="E13" t="n">
-        <v>463.0790596585738</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F13" t="n">
-        <v>355.0915771740261</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G13" t="n">
-        <v>225.861212782407</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H13" t="n">
-        <v>114.7234642995624</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I13" t="n">
         <v>43.36919653809315</v>
       </c>
       <c r="J13" t="n">
-        <v>96.82461516133921</v>
+        <v>96.82461516133901</v>
       </c>
       <c r="K13" t="n">
-        <v>289.9769122438643</v>
+        <v>289.9769122438639</v>
       </c>
       <c r="L13" t="n">
-        <v>582.0089885516791</v>
+        <v>582.0089885516786</v>
       </c>
       <c r="M13" t="n">
-        <v>898.2323435024661</v>
+        <v>898.2323435024657</v>
       </c>
       <c r="N13" t="n">
         <v>1213.277836183093</v>
       </c>
       <c r="O13" t="n">
-        <v>1491.167688910534</v>
+        <v>1491.167688910533</v>
       </c>
       <c r="P13" t="n">
         <v>1710.932735988264</v>
       </c>
       <c r="Q13" t="n">
-        <v>1791.381826370422</v>
+        <v>1791.381826370421</v>
       </c>
       <c r="R13" t="n">
-        <v>1791.381826370422</v>
+        <v>1721.119795155865</v>
       </c>
       <c r="S13" t="n">
-        <v>1631.104805768011</v>
+        <v>1560.842774553454</v>
       </c>
       <c r="T13" t="n">
-        <v>1631.104805768011</v>
+        <v>1376.14138225944</v>
       </c>
       <c r="U13" t="n">
-        <v>1631.104805768011</v>
+        <v>1125.917526246827</v>
       </c>
       <c r="V13" t="n">
-        <v>1415.322782575487</v>
+        <v>910.1355030543023</v>
       </c>
       <c r="W13" t="n">
-        <v>1164.808077551889</v>
+        <v>659.620798030704</v>
       </c>
       <c r="X13" t="n">
-        <v>975.720991667234</v>
+        <v>470.5337121460491</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.0835803579989</v>
+        <v>295.1258249240011</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2026.858218431317</v>
+        <v>1290.186884522452</v>
       </c>
       <c r="C14" t="n">
-        <v>1703.947755071258</v>
+        <v>1290.186884522452</v>
       </c>
       <c r="D14" t="n">
-        <v>1391.734110044861</v>
+        <v>977.9732394960546</v>
       </c>
       <c r="E14" t="n">
-        <v>1051.997911026969</v>
+        <v>977.9732394960546</v>
       </c>
       <c r="F14" t="n">
-        <v>687.0640598177147</v>
+        <v>613.0393882868002</v>
       </c>
       <c r="G14" t="n">
-        <v>318.0436632430634</v>
+        <v>318.0436632430631</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218343</v>
@@ -5279,22 +5279,22 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052369</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3261.367206716619</v>
+        <v>3261.36720671662</v>
       </c>
       <c r="T14" t="n">
-        <v>3101.441512681194</v>
+        <v>3101.441512681195</v>
       </c>
       <c r="U14" t="n">
-        <v>2893.963089535383</v>
+        <v>2893.963089535384</v>
       </c>
       <c r="V14" t="n">
-        <v>2608.952255772166</v>
+        <v>2608.952255772167</v>
       </c>
       <c r="W14" t="n">
-        <v>2367.406004915086</v>
+        <v>2302.235654082406</v>
       </c>
       <c r="X14" t="n">
-        <v>2367.406004915086</v>
+        <v>1974.82194940168</v>
       </c>
       <c r="Y14" t="n">
-        <v>2367.406004915086</v>
+        <v>1630.734671006221</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>769.2493053793376</v>
+        <v>735.9298951893934</v>
       </c>
       <c r="C16" t="n">
-        <v>646.3651760317834</v>
+        <v>613.0457658418396</v>
       </c>
       <c r="D16" t="n">
-        <v>542.3005901998006</v>
+        <v>508.981180009857</v>
       </c>
       <c r="E16" t="n">
-        <v>440.4395501977602</v>
+        <v>407.1201400078171</v>
       </c>
       <c r="F16" t="n">
-        <v>339.6016562802026</v>
+        <v>306.2822460902599</v>
       </c>
       <c r="G16" t="n">
-        <v>217.9508732352746</v>
+        <v>184.631463045332</v>
       </c>
       <c r="H16" t="n">
-        <v>117.7857400334852</v>
+        <v>84.46632984354366</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>156.7703665932227</v>
+        <v>156.7703665932231</v>
       </c>
       <c r="K16" t="n">
-        <v>405.8931672562029</v>
+        <v>405.8931672562036</v>
       </c>
       <c r="L16" t="n">
-        <v>767.588583418803</v>
+        <v>767.5885834188039</v>
       </c>
       <c r="M16" t="n">
-        <v>1156.881246732456</v>
+        <v>1156.881246732457</v>
       </c>
       <c r="N16" t="n">
-        <v>1543.425241152424</v>
+        <v>1543.425241152426</v>
       </c>
       <c r="O16" t="n">
-        <v>1887.890457786941</v>
+        <v>1887.890457786943</v>
       </c>
       <c r="P16" t="n">
-        <v>2165.633575934704</v>
+        <v>2165.633575934707</v>
       </c>
       <c r="Q16" t="n">
-        <v>2288.379489801323</v>
+        <v>2288.379489801325</v>
       </c>
       <c r="R16" t="n">
-        <v>2277.920496329153</v>
+        <v>2244.601086139206</v>
       </c>
       <c r="S16" t="n">
-        <v>2132.286665736332</v>
+        <v>2098.967255546386</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.572103886211</v>
+        <v>1923.252693696265</v>
       </c>
       <c r="U16" t="n">
-        <v>1713.521290592208</v>
+        <v>1680.201880402262</v>
       </c>
       <c r="V16" t="n">
-        <v>1504.888855966674</v>
+        <v>1471.569445776728</v>
       </c>
       <c r="W16" t="n">
-        <v>1261.523739510066</v>
+        <v>1228.204329320121</v>
       </c>
       <c r="X16" t="n">
-        <v>1079.586242192402</v>
+        <v>1046.266832002457</v>
       </c>
       <c r="Y16" t="n">
-        <v>904.8457166292244</v>
+        <v>871.5263064392799</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C17" t="n">
         <v>1440.850850103805</v>
@@ -5498,67 +5498,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G17" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U17" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X17" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="18">
@@ -5586,13 +5586,13 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F19" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G19" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226754</v>
       </c>
       <c r="J19" t="n">
-        <v>175.0427429954468</v>
+        <v>79.65384678970699</v>
       </c>
       <c r="K19" t="n">
-        <v>370.0614702889411</v>
+        <v>253.5298502264971</v>
       </c>
       <c r="L19" t="n">
-        <v>622.4791872371222</v>
+        <v>505.9475671746782</v>
       </c>
       <c r="M19" t="n">
-        <v>886.6195415621439</v>
+        <v>770.0879214996999</v>
       </c>
       <c r="N19" t="n">
-        <v>1154.636251617815</v>
+        <v>941.3967585295474</v>
       </c>
       <c r="O19" t="n">
-        <v>1292.554600836005</v>
+        <v>1176.022980773561</v>
       </c>
       <c r="P19" t="n">
-        <v>1391.505603588764</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q19" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S19" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T19" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U19" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C20" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D20" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046496</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307318</v>
       </c>
       <c r="G20" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495706</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,10 +5750,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5780,22 +5780,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U20" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V20" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y20" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
         <v>458.9189605332749</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F22" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G22" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>67.83109325226761</v>
+        <v>67.83109325226754</v>
       </c>
       <c r="J22" t="n">
-        <v>176.361719815531</v>
+        <v>79.65384678970699</v>
       </c>
       <c r="K22" t="n">
-        <v>371.3804471090252</v>
+        <v>274.6725740832012</v>
       </c>
       <c r="L22" t="n">
-        <v>623.7981640572063</v>
+        <v>430.3824180055585</v>
       </c>
       <c r="M22" t="n">
-        <v>887.938518382228</v>
+        <v>694.5227723305801</v>
       </c>
       <c r="N22" t="n">
-        <v>1155.955228437899</v>
+        <v>962.5394823862514</v>
       </c>
       <c r="O22" t="n">
-        <v>1369.438726825208</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P22" t="n">
-        <v>1468.389729577966</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q22" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T22" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V22" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="23">
@@ -5972,67 +5972,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307327</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G23" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V23" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X23" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="24">
@@ -6057,16 +6057,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6099,7 +6099,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226761</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>79.65384678970706</v>
+        <v>175.0427429954467</v>
       </c>
       <c r="K25" t="n">
-        <v>177.9647010573775</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L25" t="n">
-        <v>430.3824180055586</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M25" t="n">
-        <v>673.3800484738749</v>
+        <v>770.0879214996994</v>
       </c>
       <c r="N25" t="n">
-        <v>941.3967585295463</v>
+        <v>1038.104631555371</v>
       </c>
       <c r="O25" t="n">
-        <v>1176.02298077356</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P25" t="n">
-        <v>1371.681856552143</v>
+        <v>1468.389729577967</v>
       </c>
       <c r="Q25" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S25" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673495</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1955.671712554366</v>
+        <v>1955.671712554367</v>
       </c>
       <c r="C26" t="n">
         <v>1646.478165174436</v>
       </c>
       <c r="D26" t="n">
-        <v>1347.981436128166</v>
+        <v>1347.981436128167</v>
       </c>
       <c r="E26" t="n">
         <v>1021.962153090403</v>
       </c>
       <c r="F26" t="n">
-        <v>670.7452178612759</v>
+        <v>670.7452178612766</v>
       </c>
       <c r="G26" t="n">
-        <v>315.4417372667533</v>
+        <v>315.441737266754</v>
       </c>
       <c r="H26" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="I26" t="n">
-        <v>95.04551302703237</v>
+        <v>95.04551302703189</v>
       </c>
       <c r="J26" t="n">
-        <v>342.5042110522854</v>
+        <v>342.5042110522846</v>
       </c>
       <c r="K26" t="n">
-        <v>734.9031518083593</v>
+        <v>734.9031518083581</v>
       </c>
       <c r="L26" t="n">
-        <v>1244.516932122996</v>
+        <v>1244.516932122994</v>
       </c>
       <c r="M26" t="n">
-        <v>1836.628403861147</v>
+        <v>1836.628403861146</v>
       </c>
       <c r="N26" t="n">
-        <v>2441.986787986156</v>
+        <v>2441.986787986155</v>
       </c>
       <c r="O26" t="n">
-        <v>3003.538825931721</v>
+        <v>3003.53882593172</v>
       </c>
       <c r="P26" t="n">
-        <v>3456.892759355126</v>
+        <v>3456.892759355125</v>
       </c>
       <c r="Q26" t="n">
-        <v>3763.758688177035</v>
+        <v>3763.758688177034</v>
       </c>
       <c r="R26" t="n">
-        <v>3881.355321800065</v>
+        <v>3881.355321800064</v>
       </c>
       <c r="S26" t="n">
         <v>3830.833622887641</v>
@@ -6266,7 +6266,7 @@
         <v>2926.569734173938</v>
       </c>
       <c r="X26" t="n">
-        <v>2612.872945473338</v>
+        <v>2612.872945473339</v>
       </c>
       <c r="Y26" t="n">
         <v>2282.502583058008</v>
@@ -6297,10 +6297,10 @@
         <v>187.1362923965958</v>
       </c>
       <c r="H27" t="n">
-        <v>96.63439803446335</v>
+        <v>96.63439803446332</v>
       </c>
       <c r="I27" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="J27" t="n">
         <v>171.3043759266186</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>684.3458835222599</v>
+        <v>684.3458835222592</v>
       </c>
       <c r="C28" t="n">
-        <v>575.1786701548338</v>
+        <v>575.1786701548332</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8310003029788</v>
+        <v>484.8310003029783</v>
       </c>
       <c r="E28" t="n">
-        <v>396.6868762810665</v>
+        <v>396.6868762810661</v>
       </c>
       <c r="F28" t="n">
-        <v>309.5658983436369</v>
+        <v>309.5658983436366</v>
       </c>
       <c r="G28" t="n">
-        <v>201.6320312788366</v>
+        <v>201.6320312788364</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1838140571752</v>
+        <v>115.1838140571751</v>
       </c>
       <c r="I28" t="n">
-        <v>77.6271064360013</v>
+        <v>77.62710643600128</v>
       </c>
       <c r="J28" t="n">
-        <v>181.3293059491641</v>
+        <v>148.029427039668</v>
       </c>
       <c r="K28" t="n">
-        <v>338.2197272830616</v>
+        <v>304.9198483735657</v>
       </c>
       <c r="L28" t="n">
-        <v>552.5091382716461</v>
+        <v>680.0592138882892</v>
       </c>
       <c r="M28" t="n">
-        <v>955.2457509374224</v>
+        <v>1082.795826554066</v>
       </c>
       <c r="N28" t="n">
-        <v>1355.233694709514</v>
+        <v>1461.713635288674</v>
       </c>
       <c r="O28" t="n">
-        <v>1713.142860696155</v>
+        <v>1819.622801275314</v>
       </c>
       <c r="P28" t="n">
-        <v>2004.329928196041</v>
+        <v>1977.1533710943</v>
       </c>
       <c r="Q28" t="n">
-        <v>2113.343234313044</v>
+        <v>2113.343234313042</v>
       </c>
       <c r="R28" t="n">
-        <v>2083.281746631053</v>
+        <v>2083.281746631051</v>
       </c>
       <c r="S28" t="n">
-        <v>1951.364832018359</v>
+        <v>1951.364832018358</v>
       </c>
       <c r="T28" t="n">
-        <v>1789.367186148366</v>
+        <v>1789.367186148365</v>
       </c>
       <c r="U28" t="n">
-        <v>1560.033288834491</v>
+        <v>1560.03328883449</v>
       </c>
       <c r="V28" t="n">
         <v>1365.117770189084</v>
       </c>
       <c r="W28" t="n">
-        <v>1135.469569712605</v>
+        <v>1135.469569712604</v>
       </c>
       <c r="X28" t="n">
-        <v>967.2489883750682</v>
+        <v>967.2489883750674</v>
       </c>
       <c r="Y28" t="n">
-        <v>806.2253787920188</v>
+        <v>806.2253787920181</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2000.611983546877</v>
+        <v>2000.611983546879</v>
       </c>
       <c r="C29" t="n">
-        <v>1684.268847599956</v>
+        <v>1684.268847599958</v>
       </c>
       <c r="D29" t="n">
-        <v>1378.622529986696</v>
+        <v>1378.622529986697</v>
       </c>
       <c r="E29" t="n">
-        <v>1045.453658381942</v>
+        <v>1045.453658381943</v>
       </c>
       <c r="F29" t="n">
-        <v>687.0871345858254</v>
+        <v>687.0871345858259</v>
       </c>
       <c r="G29" t="n">
-        <v>324.6340654243122</v>
+        <v>324.6340654243127</v>
       </c>
       <c r="H29" t="n">
-        <v>79.66984602656994</v>
+        <v>79.66984602657006</v>
       </c>
       <c r="I29" t="n">
-        <v>90.08094086309333</v>
+        <v>90.08094086309306</v>
       </c>
       <c r="J29" t="n">
-        <v>330.5323271338389</v>
+        <v>330.5323271338382</v>
       </c>
       <c r="K29" t="n">
-        <v>715.9239561354054</v>
+        <v>715.9239561354043</v>
       </c>
       <c r="L29" t="n">
-        <v>1218.530424695534</v>
+        <v>1218.530424695533</v>
       </c>
       <c r="M29" t="n">
-        <v>1803.634584679179</v>
+        <v>1973.801942162121</v>
       </c>
       <c r="N29" t="n">
-        <v>2401.985657049681</v>
+        <v>2572.153014532623</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.530383240738</v>
+        <v>3126.69774072368</v>
       </c>
       <c r="P29" t="n">
-        <v>3573.044362392572</v>
+        <v>3573.044362392578</v>
       </c>
       <c r="Q29" t="n">
-        <v>3872.902979459974</v>
+        <v>3872.90297945998</v>
       </c>
       <c r="R29" t="n">
-        <v>3983.492301328497</v>
+        <v>3983.492301328502</v>
       </c>
       <c r="S29" t="n">
-        <v>3925.821013849083</v>
+        <v>3925.821013849088</v>
       </c>
       <c r="T29" t="n">
-        <v>3772.462647226795</v>
+        <v>3772.4626472268</v>
       </c>
       <c r="U29" t="n">
-        <v>3571.551551494123</v>
+        <v>3571.551551494127</v>
       </c>
       <c r="V29" t="n">
-        <v>3293.108045144043</v>
+        <v>3293.108045144047</v>
       </c>
       <c r="W29" t="n">
-        <v>2992.958770867419</v>
+        <v>2992.958770867423</v>
       </c>
       <c r="X29" t="n">
-        <v>2672.112393599829</v>
+        <v>2672.112393599833</v>
       </c>
       <c r="Y29" t="n">
-        <v>2334.592442617508</v>
+        <v>2334.592442617511</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>954.7015840754951</v>
+        <v>954.701584075495</v>
       </c>
       <c r="C30" t="n">
-        <v>780.2485547943681</v>
+        <v>780.248554794368</v>
       </c>
       <c r="D30" t="n">
-        <v>631.3141451331169</v>
+        <v>631.3141451331168</v>
       </c>
       <c r="E30" t="n">
-        <v>472.0766901276614</v>
+        <v>472.0766901276613</v>
       </c>
       <c r="F30" t="n">
-        <v>325.5421321545464</v>
+        <v>325.5421321545463</v>
       </c>
       <c r="G30" t="n">
         <v>189.1790319871644</v>
       </c>
       <c r="H30" t="n">
-        <v>98.67713762503197</v>
+        <v>98.67713762503209</v>
       </c>
       <c r="I30" t="n">
-        <v>79.66984602656994</v>
+        <v>79.66984602657006</v>
       </c>
       <c r="J30" t="n">
-        <v>173.3471155171873</v>
+        <v>173.3471155171874</v>
       </c>
       <c r="K30" t="n">
-        <v>411.6113144975344</v>
+        <v>411.6113144975345</v>
       </c>
       <c r="L30" t="n">
         <v>778.3094748101998</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>736.4357430817599</v>
+        <v>736.435743081763</v>
       </c>
       <c r="C31" t="n">
-        <v>620.1189411473435</v>
+        <v>620.1189411473463</v>
       </c>
       <c r="D31" t="n">
-        <v>522.6216827284984</v>
+        <v>522.6216827285007</v>
       </c>
       <c r="E31" t="n">
-        <v>427.3279701395959</v>
+        <v>427.3279701395977</v>
       </c>
       <c r="F31" t="n">
-        <v>333.0574036351761</v>
+        <v>333.0574036351775</v>
       </c>
       <c r="G31" t="n">
-        <v>217.9739480033857</v>
+        <v>217.9739480033866</v>
       </c>
       <c r="H31" t="n">
-        <v>124.376142214734</v>
+        <v>124.3761422147346</v>
       </c>
       <c r="I31" t="n">
-        <v>79.66984602656994</v>
+        <v>79.66984602657006</v>
       </c>
       <c r="J31" t="n">
-        <v>176.3647337852256</v>
+        <v>176.3647337852253</v>
       </c>
       <c r="K31" t="n">
-        <v>431.924172045822</v>
+        <v>431.9241720458214</v>
       </c>
       <c r="L31" t="n">
-        <v>800.0562258060384</v>
+        <v>800.0562258060372</v>
       </c>
       <c r="M31" t="n">
-        <v>1195.785526717307</v>
+        <v>1072.534597516131</v>
       </c>
       <c r="N31" t="n">
-        <v>1465.515229533708</v>
+        <v>1465.515229533716</v>
       </c>
       <c r="O31" t="n">
-        <v>1816.417083765841</v>
+        <v>1816.417083765849</v>
       </c>
       <c r="P31" t="n">
-        <v>2100.596839511221</v>
+        <v>2100.596839511228</v>
       </c>
       <c r="Q31" t="n">
-        <v>2229.779390975455</v>
+        <v>2229.779390975462</v>
       </c>
       <c r="R31" t="n">
-        <v>2192.568314726474</v>
+        <v>2192.56831472648</v>
       </c>
       <c r="S31" t="n">
-        <v>2053.501811546791</v>
+        <v>2053.501811546797</v>
       </c>
       <c r="T31" t="n">
-        <v>1884.354577109808</v>
+        <v>1884.354577109813</v>
       </c>
       <c r="U31" t="n">
-        <v>1647.871091228942</v>
+        <v>1647.871091228947</v>
       </c>
       <c r="V31" t="n">
-        <v>1445.805984016546</v>
+        <v>1445.80598401655</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.008194973075</v>
+        <v>1209.00819497308</v>
       </c>
       <c r="X31" t="n">
-        <v>1033.638025068549</v>
+        <v>1033.638025068552</v>
       </c>
       <c r="Y31" t="n">
-        <v>865.4648269185091</v>
+        <v>865.4648269185126</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2000.611983546876</v>
+        <v>2000.61198354688</v>
       </c>
       <c r="C32" t="n">
-        <v>1684.268847599955</v>
+        <v>1684.268847599958</v>
       </c>
       <c r="D32" t="n">
-        <v>1378.622529986695</v>
+        <v>1378.622529986697</v>
       </c>
       <c r="E32" t="n">
-        <v>1045.453658381942</v>
+        <v>1045.453658381943</v>
       </c>
       <c r="F32" t="n">
-        <v>687.0871345858245</v>
+        <v>687.087134585826</v>
       </c>
       <c r="G32" t="n">
-        <v>324.6340654243122</v>
+        <v>324.6340654243126</v>
       </c>
       <c r="H32" t="n">
-        <v>79.66984602656994</v>
+        <v>79.66984602657006</v>
       </c>
       <c r="I32" t="n">
-        <v>90.08094086309333</v>
+        <v>90.08094086309315</v>
       </c>
       <c r="J32" t="n">
-        <v>497.9379761541919</v>
+        <v>330.5323271338384</v>
       </c>
       <c r="K32" t="n">
-        <v>883.3296051557585</v>
+        <v>715.9239561354046</v>
       </c>
       <c r="L32" t="n">
-        <v>1385.936073715887</v>
+        <v>1218.530424695533</v>
       </c>
       <c r="M32" t="n">
-        <v>1971.040233699532</v>
+        <v>1803.634584679178</v>
       </c>
       <c r="N32" t="n">
-        <v>2569.391306070034</v>
+        <v>2401.98565704968</v>
       </c>
       <c r="O32" t="n">
-        <v>3123.936032261091</v>
+        <v>3126.69774072368</v>
       </c>
       <c r="P32" t="n">
-        <v>3573.044362392572</v>
+        <v>3573.044362392578</v>
       </c>
       <c r="Q32" t="n">
-        <v>3872.902979459974</v>
+        <v>3872.90297945998</v>
       </c>
       <c r="R32" t="n">
-        <v>3983.492301328497</v>
+        <v>3983.492301328502</v>
       </c>
       <c r="S32" t="n">
-        <v>3925.821013849082</v>
+        <v>3925.821013849088</v>
       </c>
       <c r="T32" t="n">
-        <v>3772.462647226795</v>
+        <v>3772.4626472268</v>
       </c>
       <c r="U32" t="n">
-        <v>3571.551551494122</v>
+        <v>3571.551551494127</v>
       </c>
       <c r="V32" t="n">
-        <v>3293.108045144041</v>
+        <v>3293.108045144047</v>
       </c>
       <c r="W32" t="n">
-        <v>2992.958770867418</v>
+        <v>2992.958770867423</v>
       </c>
       <c r="X32" t="n">
-        <v>2672.112393599828</v>
+        <v>2672.112393599833</v>
       </c>
       <c r="Y32" t="n">
-        <v>2334.592442617507</v>
+        <v>2334.592442617512</v>
       </c>
     </row>
     <row r="33">
@@ -6762,25 +6762,25 @@
         <v>631.3141451331168</v>
       </c>
       <c r="E33" t="n">
-        <v>472.0766901276613</v>
+        <v>472.0766901276615</v>
       </c>
       <c r="F33" t="n">
-        <v>325.5421321545464</v>
+        <v>325.5421321545465</v>
       </c>
       <c r="G33" t="n">
-        <v>189.1790319871644</v>
+        <v>189.1790319871646</v>
       </c>
       <c r="H33" t="n">
-        <v>98.67713762503197</v>
+        <v>98.67713762503209</v>
       </c>
       <c r="I33" t="n">
-        <v>79.66984602656994</v>
+        <v>79.66984602657006</v>
       </c>
       <c r="J33" t="n">
-        <v>173.3471155171873</v>
+        <v>173.3471155171874</v>
       </c>
       <c r="K33" t="n">
-        <v>411.6113144975344</v>
+        <v>411.6113144975345</v>
       </c>
       <c r="L33" t="n">
         <v>778.3094748101998</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>736.4357430817602</v>
+        <v>736.4357430817624</v>
       </c>
       <c r="C34" t="n">
-        <v>620.1189411473438</v>
+        <v>620.1189411473457</v>
       </c>
       <c r="D34" t="n">
-        <v>522.6216827284986</v>
+        <v>522.6216827285002</v>
       </c>
       <c r="E34" t="n">
-        <v>427.327970139596</v>
+        <v>427.3279701395974</v>
       </c>
       <c r="F34" t="n">
-        <v>333.0574036351762</v>
+        <v>333.0574036351773</v>
       </c>
       <c r="G34" t="n">
-        <v>217.9739480033857</v>
+        <v>217.9739480033865</v>
       </c>
       <c r="H34" t="n">
-        <v>124.376142214734</v>
+        <v>124.3761422147345</v>
       </c>
       <c r="I34" t="n">
-        <v>79.66984602656994</v>
+        <v>79.66984602657006</v>
       </c>
       <c r="J34" t="n">
-        <v>176.3647337852256</v>
+        <v>158.790133265255</v>
       </c>
       <c r="K34" t="n">
-        <v>431.924172045822</v>
+        <v>308.6732428446451</v>
       </c>
       <c r="L34" t="n">
-        <v>800.0562258060382</v>
+        <v>676.805296604861</v>
       </c>
       <c r="M34" t="n">
-        <v>1195.785526717307</v>
+        <v>1072.53459751613</v>
       </c>
       <c r="N34" t="n">
-        <v>1588.766158734892</v>
+        <v>1465.515229533714</v>
       </c>
       <c r="O34" t="n">
-        <v>1939.668012967026</v>
+        <v>1816.417083765848</v>
       </c>
       <c r="P34" t="n">
-        <v>2100.596839511221</v>
+        <v>2100.596839511227</v>
       </c>
       <c r="Q34" t="n">
-        <v>2229.779390975455</v>
+        <v>2229.779390975461</v>
       </c>
       <c r="R34" t="n">
-        <v>2192.568314726474</v>
+        <v>2192.568314726479</v>
       </c>
       <c r="S34" t="n">
-        <v>2053.501811546791</v>
+        <v>2053.501811546796</v>
       </c>
       <c r="T34" t="n">
-        <v>1884.354577109808</v>
+        <v>1884.354577109812</v>
       </c>
       <c r="U34" t="n">
-        <v>1647.871091228942</v>
+        <v>1647.871091228946</v>
       </c>
       <c r="V34" t="n">
-        <v>1445.805984016546</v>
+        <v>1445.805984016549</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.008194973076</v>
+        <v>1209.008194973079</v>
       </c>
       <c r="X34" t="n">
-        <v>1033.638025068549</v>
+        <v>1033.638025068552</v>
       </c>
       <c r="Y34" t="n">
-        <v>865.4648269185093</v>
+        <v>865.4648269185119</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464971</v>
+        <v>894.1397680464984</v>
       </c>
       <c r="F35" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307341</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218468</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912101</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
         <v>312.3844025601599</v>
@@ -7011,7 +7011,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228008</v>
@@ -7020,19 +7020,19 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
-        <v>273.3535972631171</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>525.7713142112982</v>
+        <v>429.0634411854744</v>
       </c>
       <c r="M37" t="n">
-        <v>789.9116685363199</v>
+        <v>693.2037955104961</v>
       </c>
       <c r="N37" t="n">
-        <v>961.2205055661674</v>
+        <v>961.2205055661675</v>
       </c>
       <c r="O37" t="n">
         <v>1195.846727810181</v>
       </c>
       <c r="P37" t="n">
-        <v>1391.505603588763</v>
+        <v>1391.505603588764</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W37" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103807</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.2565860709</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464991</v>
       </c>
       <c r="F38" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307348</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668177</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049859</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362622</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960654</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F39" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N39" t="n">
         <v>1685.951113992584</v>
@@ -7272,7 +7272,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125857</v>
@@ -7281,16 +7281,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U39" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226756</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
-        <v>155.2189959588263</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K40" t="n">
-        <v>253.5298502264967</v>
+        <v>273.3535972631172</v>
       </c>
       <c r="L40" t="n">
-        <v>505.9475671746778</v>
+        <v>505.9475671746771</v>
       </c>
       <c r="M40" t="n">
-        <v>770.0879214996994</v>
+        <v>673.3800484738749</v>
       </c>
       <c r="N40" t="n">
-        <v>941.3967585295469</v>
+        <v>941.3967585295463</v>
       </c>
       <c r="O40" t="n">
         <v>1176.02298077356</v>
@@ -7351,31 +7351,31 @@
         <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W40" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
         <v>581.8252978307335</v>
@@ -7409,22 +7409,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7442,19 +7442,19 @@
         <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7488,7 +7488,7 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031477</v>
@@ -7564,25 +7564,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226762</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>79.65384678970707</v>
+        <v>155.2189959588259</v>
       </c>
       <c r="K43" t="n">
-        <v>253.529850226496</v>
+        <v>350.2377232523202</v>
       </c>
       <c r="L43" t="n">
-        <v>505.9475671746771</v>
+        <v>602.6554402005013</v>
       </c>
       <c r="M43" t="n">
-        <v>673.3800484738749</v>
+        <v>866.795794525523</v>
       </c>
       <c r="N43" t="n">
-        <v>941.3967585295463</v>
+        <v>1134.812504581194</v>
       </c>
       <c r="O43" t="n">
-        <v>1176.02298077356</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P43" t="n">
         <v>1371.681856552143</v>
@@ -7646,22 +7646,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7731,7 +7731,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7804,22 +7804,22 @@
         <v>67.83109325226764</v>
       </c>
       <c r="J46" t="n">
-        <v>176.361719815531</v>
+        <v>79.65384678970709</v>
       </c>
       <c r="K46" t="n">
         <v>274.6725740832014</v>
       </c>
       <c r="L46" t="n">
-        <v>505.9475671746768</v>
+        <v>430.3824180055586</v>
       </c>
       <c r="M46" t="n">
-        <v>770.0879214996985</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N46" t="n">
-        <v>1038.10463155537</v>
+        <v>962.5394823862518</v>
       </c>
       <c r="O46" t="n">
-        <v>1272.730853799384</v>
+        <v>1197.165704630266</v>
       </c>
       <c r="P46" t="n">
         <v>1371.681856552142</v>
@@ -10030,28 +10030,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>150.5347521601346</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.89189059821663</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>171.8862196797414</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>171.8862196797327</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10276,10 +10276,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>54.01377282745108</v>
       </c>
       <c r="N31" t="n">
-        <v>47.32182876245747</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10361,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>171.8862196797411</v>
       </c>
       <c r="P32" t="n">
-        <v>2.789604507659021</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10504,10 +10504,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>15.88411958537948</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
@@ -10522,7 +10522,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>10.51067523203696</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>344.2204013002518</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>326.7594514077787</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>316.1696012574541</v>
       </c>
       <c r="E11" t="n">
-        <v>167.4061705512201</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>368.3626053784824</v>
+        <v>368.3626053784826</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>373.357294480398</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>212.5576523308869</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>289.2388181069059</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>310.727528354184</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>331.21766031524</v>
+        <v>298.3655795053817</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.7244982928246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>128.733380735399</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.1020326549835</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>106.9076076597024</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>127.938060747703</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>110.0263709980164</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>70.64072508385465</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>69.55941090240955</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>182.8543783710736</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>247.7216174524877</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>160.6301757927231</v>
+        <v>6.417404639038438</v>
       </c>
     </row>
     <row r="14">
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>319.6813587264579</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>336.3388370277121</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>73.28442481560397</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>64.51864732435502</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>324.1395676339197</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>340.6464056115043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>32.98621608804184</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>32.98621608805006</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.538708137538961e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1124610.440399392</v>
+        <v>1124610.440399391</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1328819.317414691</v>
+        <v>1328819.317414692</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1416297.05301589</v>
+        <v>1416297.053015889</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1436474.953230382</v>
+        <v>1436474.953230383</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1436474.953230382</v>
+        <v>1436474.953230383</v>
       </c>
     </row>
     <row r="13">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20481.90846792596</v>
+        <v>20481.90846792595</v>
       </c>
       <c r="C2" t="n">
         <v>20481.90846792596</v>
       </c>
       <c r="D2" t="n">
-        <v>20483.59565771999</v>
+        <v>20483.59565771998</v>
       </c>
       <c r="E2" t="n">
-        <v>16095.38737976969</v>
+        <v>16095.38737976967</v>
       </c>
       <c r="F2" t="n">
-        <v>19054.9363220204</v>
+        <v>19054.93632202041</v>
       </c>
       <c r="G2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="H2" t="n">
         <v>20526.04424660709</v>
@@ -26338,19 +26338,19 @@
         <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660712</v>
       </c>
       <c r="L2" t="n">
         <v>20526.04424660711</v>
       </c>
       <c r="M2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="N2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="N2" t="n">
-        <v>20526.0442466071</v>
-      </c>
       <c r="O2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="P2" t="n">
         <v>20526.04424660709</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>180616.6200337587</v>
+        <v>180616.6200337579</v>
       </c>
       <c r="E3" t="n">
-        <v>709111.3930992384</v>
+        <v>709111.3930992391</v>
       </c>
       <c r="F3" t="n">
-        <v>275147.7953347118</v>
+        <v>275147.7953347122</v>
       </c>
       <c r="G3" t="n">
-        <v>41674.54974684452</v>
+        <v>41674.5497468442</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>36352.13055698658</v>
+        <v>36352.13055698649</v>
       </c>
       <c r="K3" t="n">
-        <v>6571.697536818386</v>
+        <v>6571.697536818766</v>
       </c>
       <c r="L3" t="n">
-        <v>41674.54974684452</v>
+        <v>41674.54974684426</v>
       </c>
       <c r="M3" t="n">
-        <v>130583.4565386328</v>
+        <v>130583.4565386327</v>
       </c>
       <c r="N3" t="n">
-        <v>70854.07426124807</v>
+        <v>70854.07426124818</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,37 +26421,37 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>394107.6254312522</v>
+        <v>394107.6254312524</v>
       </c>
       <c r="E4" t="n">
-        <v>73673.6657816988</v>
+        <v>73673.66578169863</v>
       </c>
       <c r="F4" t="n">
-        <v>60539.88787165978</v>
+        <v>60539.88787166012</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="J4" t="n">
-        <v>94601.19554353887</v>
+        <v>94601.19554353894</v>
       </c>
       <c r="K4" t="n">
-        <v>94815.74345147083</v>
+        <v>94815.74345147079</v>
       </c>
       <c r="L4" t="n">
-        <v>94815.7434514708</v>
+        <v>94815.74345147086</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657699</v>
+        <v>93774.13782657702</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="O4" t="n">
         <v>93774.137826577</v>
@@ -26473,19 +26473,19 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>38225.19218874976</v>
+        <v>38225.19218874974</v>
       </c>
       <c r="E5" t="n">
-        <v>54809.26827376862</v>
+        <v>54809.26827376861</v>
       </c>
       <c r="F5" t="n">
-        <v>78139.17515291552</v>
+        <v>78139.17515291554</v>
       </c>
       <c r="G5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="H5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="I5" t="n">
         <v>82518.59730624985</v>
@@ -26494,16 +26494,16 @@
         <v>87728.20329125514</v>
       </c>
       <c r="K5" t="n">
-        <v>88685.6372064614</v>
+        <v>88685.63720646144</v>
       </c>
       <c r="L5" t="n">
-        <v>88685.6372064614</v>
+        <v>88685.63720646146</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624987</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-480761.6514638052</v>
+        <v>-480766.0650416734</v>
       </c>
       <c r="C6" t="n">
-        <v>-480761.6514638052</v>
+        <v>-480766.0650416734</v>
       </c>
       <c r="D6" t="n">
-        <v>-592465.8419960407</v>
+        <v>-592470.0868549288</v>
       </c>
       <c r="E6" t="n">
-        <v>-821498.9397749361</v>
+        <v>-821942.0054616204</v>
       </c>
       <c r="F6" t="n">
-        <v>-394771.9220372667</v>
+        <v>-394919.0328297261</v>
       </c>
       <c r="G6" t="n">
-        <v>-197441.2406330643</v>
+        <v>-197441.2406330639</v>
       </c>
       <c r="H6" t="n">
-        <v>-155766.6908862198</v>
+        <v>-155766.6908862197</v>
       </c>
       <c r="I6" t="n">
-        <v>-155766.6908862198</v>
+        <v>-155766.6908862197</v>
       </c>
       <c r="J6" t="n">
         <v>-198155.4851451735</v>
       </c>
       <c r="K6" t="n">
-        <v>-169547.0339481435</v>
+        <v>-169547.0339481439</v>
       </c>
       <c r="L6" t="n">
-        <v>-204649.8861581696</v>
+        <v>-204649.8861581695</v>
       </c>
       <c r="M6" t="n">
-        <v>-286350.1474248526</v>
+        <v>-286350.1474248525</v>
       </c>
       <c r="N6" t="n">
-        <v>-226620.7651474678</v>
+        <v>-226620.765147468</v>
       </c>
       <c r="O6" t="n">
         <v>-155766.6908862198</v>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="F2" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="G2" t="n">
+        <v>97.68472022810488</v>
+      </c>
+      <c r="H2" t="n">
+        <v>97.68472022810488</v>
+      </c>
+      <c r="I2" t="n">
+        <v>97.68472022810489</v>
+      </c>
+      <c r="J2" t="n">
+        <v>59.17127986487606</v>
+      </c>
+      <c r="K2" t="n">
+        <v>52.09318718355525</v>
+      </c>
+      <c r="L2" t="n">
+        <v>52.09318718355533</v>
+      </c>
+      <c r="M2" t="n">
         <v>97.68472022810495</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>97.68472022810495</v>
-      </c>
-      <c r="I2" t="n">
-        <v>97.68472022810495</v>
-      </c>
-      <c r="J2" t="n">
-        <v>59.17127986487598</v>
-      </c>
-      <c r="K2" t="n">
-        <v>52.09318718355566</v>
-      </c>
-      <c r="L2" t="n">
-        <v>52.09318718355565</v>
-      </c>
-      <c r="M2" t="n">
-        <v>97.68472022810489</v>
-      </c>
-      <c r="N2" t="n">
-        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810495</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>210.8987242545763</v>
+        <v>210.8987242545753</v>
       </c>
       <c r="E3" t="n">
         <v>853.7106645376851</v>
@@ -26802,28 +26802,28 @@
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>970.3388304500162</v>
+        <v>970.3388304500161</v>
       </c>
       <c r="K4" t="n">
-        <v>995.8730753321242</v>
+        <v>995.8730753321256</v>
       </c>
       <c r="L4" t="n">
-        <v>995.8730753321242</v>
+        <v>995.8730753321256</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022931</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="F2" t="n">
-        <v>7.078092681320321</v>
+        <v>7.078092681320804</v>
       </c>
       <c r="G2" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="M2" t="n">
-        <v>45.59153304454924</v>
+        <v>45.59153304454962</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>210.8987242545763</v>
+        <v>210.8987242545753</v>
       </c>
       <c r="E3" t="n">
-        <v>642.8119402831089</v>
+        <v>642.8119402831098</v>
       </c>
       <c r="F3" t="n">
         <v>236.0660360556132</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9373750477235</v>
+        <v>138.9373750477232</v>
       </c>
       <c r="K4" t="n">
-        <v>25.53424488210806</v>
+        <v>25.53424488210953</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>377.6433367963332</v>
+        <v>377.6433367963316</v>
       </c>
       <c r="N4" t="n">
-        <v>289.2864986761283</v>
+        <v>289.2864986761288</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="K2" t="n">
-        <v>7.078092681320321</v>
+        <v>7.078092681320804</v>
       </c>
       <c r="L2" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>330.7919214734669</v>
+        <v>330.791921473467</v>
       </c>
       <c r="I8" t="n">
-        <v>177.7897666886992</v>
+        <v>177.7897666886993</v>
       </c>
       <c r="J8" t="n">
-        <v>109.087047852508</v>
+        <v>109.0870478525083</v>
       </c>
       <c r="K8" t="n">
-        <v>112.2421782996617</v>
+        <v>112.2421782996622</v>
       </c>
       <c r="L8" t="n">
-        <v>101.9718403858504</v>
+        <v>101.971840385851</v>
       </c>
       <c r="M8" t="n">
-        <v>81.47398954780996</v>
+        <v>81.47398954781062</v>
       </c>
       <c r="N8" t="n">
-        <v>78.13191137325552</v>
+        <v>78.13191137325617</v>
       </c>
       <c r="O8" t="n">
-        <v>87.24770920561343</v>
+        <v>87.24770920561403</v>
       </c>
       <c r="P8" t="n">
-        <v>109.3133970770248</v>
+        <v>109.3133970770253</v>
       </c>
       <c r="Q8" t="n">
-        <v>130.7491487333585</v>
+        <v>130.7491487333589</v>
       </c>
       <c r="R8" t="n">
-        <v>162.3277810806385</v>
+        <v>162.3277810806388</v>
       </c>
       <c r="S8" t="n">
-        <v>189.7000507763914</v>
+        <v>189.7000507763915</v>
       </c>
       <c r="T8" t="n">
         <v>219.3844559342845</v>
@@ -27950,37 +27950,37 @@
         <v>107.8543216816986</v>
       </c>
       <c r="I9" t="n">
-        <v>83.9039367415243</v>
+        <v>83.90393674152438</v>
       </c>
       <c r="J9" t="n">
-        <v>83.97942459904567</v>
+        <v>83.97942459904587</v>
       </c>
       <c r="K9" t="n">
-        <v>64.58994528680489</v>
+        <v>64.5899452868052</v>
       </c>
       <c r="L9" t="n">
-        <v>40.05870672116853</v>
+        <v>40.05870672116896</v>
       </c>
       <c r="M9" t="n">
-        <v>27.19422920327428</v>
+        <v>27.19422920327477</v>
       </c>
       <c r="N9" t="n">
-        <v>13.35979274774729</v>
+        <v>13.3597927477478</v>
       </c>
       <c r="O9" t="n">
-        <v>34.66583789125578</v>
+        <v>34.66583789125625</v>
       </c>
       <c r="P9" t="n">
-        <v>47.35074084267231</v>
+        <v>47.35074084267268</v>
       </c>
       <c r="Q9" t="n">
-        <v>82.07614700389711</v>
+        <v>82.07614700389735</v>
       </c>
       <c r="R9" t="n">
-        <v>117.5145762229471</v>
+        <v>117.5145762229473</v>
       </c>
       <c r="S9" t="n">
-        <v>163.2571701866856</v>
+        <v>163.2571701866857</v>
       </c>
       <c r="T9" t="n">
         <v>198.3362765477466</v>
@@ -28032,34 +28032,34 @@
         <v>144.0135408316167</v>
       </c>
       <c r="J10" t="n">
-        <v>100.1075627750053</v>
+        <v>100.1075627750054</v>
       </c>
       <c r="K10" t="n">
-        <v>84.82824676113401</v>
+        <v>84.82824676113421</v>
       </c>
       <c r="L10" t="n">
-        <v>78.34307404419992</v>
+        <v>78.34307404420016</v>
       </c>
       <c r="M10" t="n">
-        <v>79.3105921062664</v>
+        <v>79.31059210626667</v>
       </c>
       <c r="N10" t="n">
-        <v>69.48786863937607</v>
+        <v>69.48786863937633</v>
       </c>
       <c r="O10" t="n">
-        <v>84.70156525987308</v>
+        <v>84.70156525987331</v>
       </c>
       <c r="P10" t="n">
-        <v>91.7313380248381</v>
+        <v>91.73133802483829</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.6592942670048</v>
+        <v>119.659294267005</v>
       </c>
       <c r="R10" t="n">
-        <v>160.1933079318722</v>
+        <v>160.1933079318723</v>
       </c>
       <c r="S10" t="n">
-        <v>217.388846325562</v>
+        <v>217.3888463255621</v>
       </c>
       <c r="T10" t="n">
         <v>226.3206320446807</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="C11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="D11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="E11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="F11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="G11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="H11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="I11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="T11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="U11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="V11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="W11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="X11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28166,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="C12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="D12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="E12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="F12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="G12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="H12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="I12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="J12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="L12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="M12" t="n">
-        <v>29.67891712180949</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="O12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="P12" t="n">
-        <v>38.51344036322897</v>
+        <v>36.5234966078267</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.51344036322897</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="T12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="U12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="V12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="W12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="X12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="Y12" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="C13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="D13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="E13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="F13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="G13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="H13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="I13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="J13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="K13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="L13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="M13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="N13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="O13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="P13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="R13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="S13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="T13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="U13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="V13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="W13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="X13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.51344036322897</v>
+        <v>38.51344036322882</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="C14" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="D14" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="E14" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="F14" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="G14" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="H14" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="T14" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="U14" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="V14" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="W14" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="X14" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="Y14" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="C16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="D16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="E16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="F16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="G16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="H16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="I16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="J16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="K16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="L16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="M16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="N16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="O16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="P16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="R16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="S16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="T16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="U16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="V16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="W16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="X16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
       <c r="Y16" t="n">
-        <v>45.59153304454929</v>
+        <v>45.59153304454963</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810495</v>
+        <v>76.32843350416138</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="M19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.66073332242696</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="J22" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O22" t="n">
-        <v>76.32843350416024</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>76.32843350416141</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68472022810495</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>76.32843350416007</v>
+        <v>77.66073332242766</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="C26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="D26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="E26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="F26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="G26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="H26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="I26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="J26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="K26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="L26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="M26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="N26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="O26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="P26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="R26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="S26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="T26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="U26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="V26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="W26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="X26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Y26" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="C28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="D28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="E28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="F28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="G28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="H28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="I28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="J28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="K28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="L28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="M28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="N28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="O28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="P28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="R28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="S28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="T28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="U28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="V28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="W28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="X28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.17127986487598</v>
+        <v>59.17127986487606</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="C29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="D29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="E29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="F29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="G29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="H29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="I29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="J29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="K29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="L29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="M29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="N29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="O29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="P29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="R29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="S29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="T29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="U29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="V29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="W29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="X29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="Y29" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="C31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="D31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="E31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="F31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="G31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="H31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="I31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="J31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="K31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="L31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="M31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="N31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="O31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="P31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="R31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="S31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="T31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="U31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="V31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="W31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="X31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.09318718355566</v>
+        <v>52.09318718355525</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="C32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="D32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="E32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="F32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="G32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="H32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="I32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="J32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="K32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="L32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="M32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="N32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="O32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="P32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="R32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="S32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="T32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="U32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="V32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="W32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="X32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="Y32" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="C34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="D34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="E34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="F34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="G34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="H34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="I34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="J34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="K34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="L34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="M34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="N34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="O34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="P34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="R34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="S34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="T34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="U34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="V34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="W34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="X34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
       <c r="Y34" t="n">
-        <v>52.09318718355565</v>
+        <v>52.09318718355533</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292717</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30028,31 +30028,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30168,49 +30168,49 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q37" t="n">
-        <v>77.66073332242789</v>
+        <v>77.66073332242696</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30247,7 +30247,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810489</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
-        <v>76.32843350416088</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810489</v>
+        <v>77.66073332242695</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30636,28 +30636,28 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
+        <v>96.35242040983809</v>
+      </c>
+      <c r="J43" t="n">
+        <v>77.66073332242725</v>
+      </c>
+      <c r="K43" t="n">
         <v>97.68472022810495</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>76.32843350416016</v>
       </c>
       <c r="L43" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N43" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>97.68472022810495</v>
@@ -30876,13 +30876,13 @@
         <v>97.68472022810496</v>
       </c>
       <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>97.68472022810496</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
       <c r="L46" t="n">
-        <v>76.32843350415976</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>97.68472022810496</v>
@@ -30894,7 +30894,7 @@
         <v>97.68472022810496</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>76.32843350415956</v>
       </c>
       <c r="Q46" t="n">
         <v>97.68472022810496</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8478340673550797</v>
+        <v>0.8478340673550762</v>
       </c>
       <c r="H8" t="n">
-        <v>8.682880642300212</v>
+        <v>8.682880642300175</v>
       </c>
       <c r="I8" t="n">
-        <v>32.68612288170674</v>
+        <v>32.6861228817066</v>
       </c>
       <c r="J8" t="n">
-        <v>71.95885667417826</v>
+        <v>71.95885667417795</v>
       </c>
       <c r="K8" t="n">
-        <v>107.8476727453188</v>
+        <v>107.8476727453183</v>
       </c>
       <c r="L8" t="n">
-        <v>133.7945745841369</v>
+        <v>133.7945745841363</v>
       </c>
       <c r="M8" t="n">
-        <v>148.8722436794628</v>
+        <v>148.8722436794621</v>
       </c>
       <c r="N8" t="n">
-        <v>151.2811522233354</v>
+        <v>151.2811522233347</v>
       </c>
       <c r="O8" t="n">
-        <v>142.8505022160733</v>
+        <v>142.8505022160727</v>
       </c>
       <c r="P8" t="n">
-        <v>121.9195986782448</v>
+        <v>121.9195986782442</v>
       </c>
       <c r="Q8" t="n">
-        <v>91.55654114109093</v>
+        <v>91.55654114109053</v>
       </c>
       <c r="R8" t="n">
-        <v>53.25775673349358</v>
+        <v>53.25775673349334</v>
       </c>
       <c r="S8" t="n">
-        <v>19.3200188098539</v>
+        <v>19.32001880985382</v>
       </c>
       <c r="T8" t="n">
-        <v>3.711393629846864</v>
+        <v>3.711393629846848</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06782672538840637</v>
+        <v>0.06782672538840608</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4536312182079565</v>
+        <v>0.4536312182079545</v>
       </c>
       <c r="H9" t="n">
-        <v>4.381122554797896</v>
+        <v>4.381122554797877</v>
       </c>
       <c r="I9" t="n">
-        <v>15.6184432584757</v>
+        <v>15.61844325847563</v>
       </c>
       <c r="J9" t="n">
-        <v>42.85820206762101</v>
+        <v>42.85820206762083</v>
       </c>
       <c r="K9" t="n">
-        <v>73.2514936875541</v>
+        <v>73.25149368755379</v>
       </c>
       <c r="L9" t="n">
-        <v>98.49567305870565</v>
+        <v>98.49567305870522</v>
       </c>
       <c r="M9" t="n">
-        <v>114.939804718744</v>
+        <v>114.9398047187435</v>
       </c>
       <c r="N9" t="n">
-        <v>117.981919335586</v>
+        <v>117.9819193355855</v>
       </c>
       <c r="O9" t="n">
-        <v>107.9304065531887</v>
+        <v>107.9304065531882</v>
       </c>
       <c r="P9" t="n">
-        <v>86.62366657165794</v>
+        <v>86.62366657165757</v>
       </c>
       <c r="Q9" t="n">
-        <v>57.90562708212441</v>
+        <v>57.90562708212416</v>
       </c>
       <c r="R9" t="n">
-        <v>28.16492774101682</v>
+        <v>28.1649277410167</v>
       </c>
       <c r="S9" t="n">
-        <v>8.426000917152168</v>
+        <v>8.426000917152132</v>
       </c>
       <c r="T9" t="n">
-        <v>1.828452147075052</v>
+        <v>1.828452147075044</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02984415909262873</v>
+        <v>0.0298441590926286</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3803091748853014</v>
+        <v>0.3803091748852998</v>
       </c>
       <c r="H10" t="n">
-        <v>3.381294300343864</v>
+        <v>3.381294300343849</v>
       </c>
       <c r="I10" t="n">
-        <v>11.43693409564161</v>
+        <v>11.43693409564156</v>
       </c>
       <c r="J10" t="n">
-        <v>26.88785866439081</v>
+        <v>26.88785866439069</v>
       </c>
       <c r="K10" t="n">
-        <v>44.18501140940137</v>
+        <v>44.18501140940118</v>
       </c>
       <c r="L10" t="n">
-        <v>56.54160223703836</v>
+        <v>56.54160223703812</v>
       </c>
       <c r="M10" t="n">
-        <v>59.61519184133865</v>
+        <v>59.61519184133839</v>
       </c>
       <c r="N10" t="n">
-        <v>58.19767582585712</v>
+        <v>58.19767582585686</v>
       </c>
       <c r="O10" t="n">
-        <v>53.75497319196971</v>
+        <v>53.75497319196948</v>
       </c>
       <c r="P10" t="n">
-        <v>45.99666602430953</v>
+        <v>45.99666602430933</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.84570736244101</v>
+        <v>31.84570736244088</v>
       </c>
       <c r="R10" t="n">
-        <v>17.10008344529728</v>
+        <v>17.1000834452972</v>
       </c>
       <c r="S10" t="n">
-        <v>6.627751711410204</v>
+        <v>6.627751711410176</v>
       </c>
       <c r="T10" t="n">
-        <v>1.624957383600833</v>
+        <v>1.624957383600826</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02074413681192555</v>
+        <v>0.02074413681192546</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32479,7 +32479,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
         <v>781.7148990095023</v>
@@ -34132,7 +34132,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L41" t="n">
         <v>691.3565293623194</v>
@@ -34208,10 +34208,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.213972784180193</v>
+        <v>2.213972784180044</v>
       </c>
       <c r="J12" t="n">
-        <v>85.16431770416867</v>
+        <v>85.16431770416852</v>
       </c>
       <c r="K12" t="n">
-        <v>158.6780472169991</v>
+        <v>197.1914875802279</v>
       </c>
       <c r="L12" t="n">
-        <v>298.6661025450351</v>
+        <v>298.6661025450349</v>
       </c>
       <c r="M12" t="n">
-        <v>352.8171953728295</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N12" t="n">
-        <v>384.7584140951805</v>
+        <v>384.7584140951803</v>
       </c>
       <c r="O12" t="n">
-        <v>332.8157093072356</v>
+        <v>332.8157093072354</v>
       </c>
       <c r="P12" t="n">
-        <v>255.1886075964623</v>
+        <v>253.1986638410601</v>
       </c>
       <c r="Q12" t="n">
         <v>94.41818044892935</v>
       </c>
       <c r="R12" t="n">
-        <v>6.84457948601478</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.99537234671319</v>
+        <v>53.99537234671304</v>
       </c>
       <c r="K13" t="n">
-        <v>195.1033303863889</v>
+        <v>195.1033303863888</v>
       </c>
       <c r="L13" t="n">
-        <v>294.981895260419</v>
+        <v>294.9818952604188</v>
       </c>
       <c r="M13" t="n">
-        <v>319.4175302533204</v>
+        <v>319.4175302533203</v>
       </c>
       <c r="N13" t="n">
-        <v>318.2277703844717</v>
+        <v>318.2277703844716</v>
       </c>
       <c r="O13" t="n">
-        <v>280.6968209368085</v>
+        <v>280.6968209368084</v>
       </c>
       <c r="P13" t="n">
-        <v>221.9848960381119</v>
+        <v>221.9848960381118</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.26170745672505</v>
+        <v>81.26170745672489</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>91.16994965761552</v>
+        <v>91.16994965761586</v>
       </c>
       <c r="K16" t="n">
-        <v>251.6391925888689</v>
+        <v>251.6391925888692</v>
       </c>
       <c r="L16" t="n">
-        <v>365.3489052147474</v>
+        <v>365.3489052147477</v>
       </c>
       <c r="M16" t="n">
-        <v>393.2249124380331</v>
+        <v>393.2249124380335</v>
       </c>
       <c r="N16" t="n">
-        <v>390.4484792120894</v>
+        <v>390.4484792120897</v>
       </c>
       <c r="O16" t="n">
-        <v>347.9446632671891</v>
+        <v>347.9446632671894</v>
       </c>
       <c r="P16" t="n">
-        <v>280.5486041896597</v>
+        <v>280.5486041896601</v>
       </c>
       <c r="Q16" t="n">
-        <v>123.985771582443</v>
+        <v>123.9857715824433</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36036,13 +36036,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.332299818266783</v>
       </c>
       <c r="J19" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>196.988613427772</v>
+        <v>175.6323267038284</v>
       </c>
       <c r="L19" t="n">
         <v>254.9673908567486</v>
@@ -36051,19 +36051,19 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N19" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q19" t="n">
-        <v>90.71201348256916</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R19" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057549</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
@@ -36273,16 +36273,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.332299818266854</v>
+        <v>1.332299818266783</v>
       </c>
       <c r="J22" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L22" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
         <v>266.8084387121431</v>
@@ -36291,16 +36291,16 @@
         <v>270.7239495511832</v>
       </c>
       <c r="O22" t="n">
-        <v>215.6398973609176</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>176.2789413352307</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R22" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057549</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36510,34 +36510,34 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.332299818266854</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M25" t="n">
-        <v>245.4521519881983</v>
+        <v>246.7844518064659</v>
       </c>
       <c r="N25" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O25" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P25" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.7360003882471</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057564</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,22 +36589,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>17.59435009195002</v>
+        <v>17.5943500919501</v>
       </c>
       <c r="J26" t="n">
-        <v>249.9582808335885</v>
+        <v>249.9582808335886</v>
       </c>
       <c r="K26" t="n">
-        <v>396.3625664202765</v>
+        <v>396.3625664202766</v>
       </c>
       <c r="L26" t="n">
         <v>514.7613942572082</v>
       </c>
       <c r="M26" t="n">
-        <v>598.0923956951027</v>
+        <v>598.0923956951028</v>
       </c>
       <c r="N26" t="n">
-        <v>611.4731152777874</v>
+        <v>611.4731152777875</v>
       </c>
       <c r="O26" t="n">
         <v>567.2242807530952</v>
@@ -36616,7 +36616,7 @@
         <v>309.9655846685955</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7844784071007</v>
+        <v>118.7844784071008</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>104.7496964779422</v>
+        <v>71.11345515521894</v>
       </c>
       <c r="K28" t="n">
-        <v>158.475173064543</v>
+        <v>158.4751730645431</v>
       </c>
       <c r="L28" t="n">
-        <v>216.4539504935197</v>
+        <v>378.9286520350742</v>
       </c>
       <c r="M28" t="n">
-        <v>406.8046592583598</v>
+        <v>406.8046592583599</v>
       </c>
       <c r="N28" t="n">
-        <v>404.0282260324161</v>
+        <v>382.745261348089</v>
       </c>
       <c r="O28" t="n">
         <v>361.5244100875158</v>
       </c>
       <c r="P28" t="n">
-        <v>294.1283510099864</v>
+        <v>159.1217876959454</v>
       </c>
       <c r="Q28" t="n">
-        <v>110.1144506232348</v>
+        <v>137.5655184027697</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>10.51625741062969</v>
+        <v>10.51625741062929</v>
       </c>
       <c r="J29" t="n">
-        <v>242.8801881522682</v>
+        <v>242.8801881522678</v>
       </c>
       <c r="K29" t="n">
-        <v>389.2844737389561</v>
+        <v>389.2844737389557</v>
       </c>
       <c r="L29" t="n">
-        <v>507.6833015758878</v>
+        <v>507.6833015758874</v>
       </c>
       <c r="M29" t="n">
-        <v>591.0143030137824</v>
+        <v>762.9005226935234</v>
       </c>
       <c r="N29" t="n">
-        <v>604.395022596467</v>
+        <v>604.3950225964667</v>
       </c>
       <c r="O29" t="n">
-        <v>560.1461880717748</v>
+        <v>560.1461880717744</v>
       </c>
       <c r="P29" t="n">
-        <v>622.7413930826602</v>
+        <v>450.8551734029271</v>
       </c>
       <c r="Q29" t="n">
-        <v>302.8874919872752</v>
+        <v>302.8874919872748</v>
       </c>
       <c r="R29" t="n">
-        <v>111.7063857257804</v>
+        <v>111.70638572578</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>97.67160379662188</v>
+        <v>97.67160379662147</v>
       </c>
       <c r="K31" t="n">
-        <v>258.1408467278752</v>
+        <v>258.1408467278748</v>
       </c>
       <c r="L31" t="n">
-        <v>371.8505593537538</v>
+        <v>371.8505593537534</v>
       </c>
       <c r="M31" t="n">
-        <v>399.7265665770395</v>
+        <v>275.2306784950445</v>
       </c>
       <c r="N31" t="n">
-        <v>272.4542452690914</v>
+        <v>396.9501333510954</v>
       </c>
       <c r="O31" t="n">
-        <v>354.4463174061954</v>
+        <v>354.446317406195</v>
       </c>
       <c r="P31" t="n">
-        <v>287.0502583286661</v>
+        <v>287.0502583286657</v>
       </c>
       <c r="Q31" t="n">
-        <v>130.4874257214493</v>
+        <v>130.4874257214489</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.51625741062969</v>
+        <v>10.51625741062938</v>
       </c>
       <c r="J32" t="n">
-        <v>411.976803324342</v>
+        <v>242.8801881522679</v>
       </c>
       <c r="K32" t="n">
-        <v>389.2844737389561</v>
+        <v>389.2844737389559</v>
       </c>
       <c r="L32" t="n">
-        <v>507.6833015758878</v>
+        <v>507.6833015758875</v>
       </c>
       <c r="M32" t="n">
-        <v>591.0143030137824</v>
+        <v>591.0143030137821</v>
       </c>
       <c r="N32" t="n">
-        <v>604.395022596467</v>
+        <v>604.3950225964668</v>
       </c>
       <c r="O32" t="n">
-        <v>560.1461880717748</v>
+        <v>732.0324077515156</v>
       </c>
       <c r="P32" t="n">
-        <v>453.6447779105865</v>
+        <v>450.8551734029272</v>
       </c>
       <c r="Q32" t="n">
-        <v>302.8874919872751</v>
+        <v>302.8874919872748</v>
       </c>
       <c r="R32" t="n">
-        <v>111.7063857257804</v>
+        <v>111.7063857257801</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>97.67160379662187</v>
+        <v>79.9194820592777</v>
       </c>
       <c r="K34" t="n">
-        <v>258.1408467278752</v>
+        <v>151.3970803832224</v>
       </c>
       <c r="L34" t="n">
-        <v>371.8505593537537</v>
+        <v>371.8505593537535</v>
       </c>
       <c r="M34" t="n">
-        <v>399.7265665770395</v>
+        <v>399.7265665770392</v>
       </c>
       <c r="N34" t="n">
-        <v>396.9501333510957</v>
+        <v>396.9501333510954</v>
       </c>
       <c r="O34" t="n">
-        <v>354.4463174061954</v>
+        <v>354.4463174061951</v>
       </c>
       <c r="P34" t="n">
-        <v>162.5543702466619</v>
+        <v>287.0502583286658</v>
       </c>
       <c r="Q34" t="n">
-        <v>130.4874257214493</v>
+        <v>130.487425721449</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37464,7 +37464,7 @@
         <v>11.94217529034289</v>
       </c>
       <c r="K37" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L37" t="n">
         <v>254.9673908567486</v>
@@ -37473,19 +37473,19 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.71201348257009</v>
+        <v>90.71201348256916</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057564</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554017</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266797</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>88.27060879450377</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K40" t="n">
         <v>99.30389319966704</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567486</v>
+        <v>234.9434039510706</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057564</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37932,28 +37932,28 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266854</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>89.60290861277014</v>
       </c>
       <c r="K43" t="n">
-        <v>175.6323267038272</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591743</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
         <v>110.7360003882471</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38172,13 +38172,13 @@
         <v>1.332299818266868</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>233.6111041328035</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
         <v>266.8084387121431</v>
@@ -38190,7 +38190,7 @@
         <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>176.2789413352289</v>
       </c>
       <c r="Q46" t="n">
         <v>110.7360003882472</v>
